--- a/XLSX/all_gdp.xlsx
+++ b/XLSX/all_gdp.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>DATE</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -452,343 +452,343 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2022</v>
+        <v>1960</v>
       </c>
       <c r="B2" t="n">
-        <v>34158</v>
+        <v>804</v>
       </c>
       <c r="C2" t="n">
-        <v>76399</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2021</v>
+        <v>1961</v>
       </c>
       <c r="B3" t="n">
-        <v>35770</v>
+        <v>887</v>
       </c>
       <c r="C3" t="n">
-        <v>70219</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2020</v>
+        <v>1962</v>
       </c>
       <c r="B4" t="n">
-        <v>31919</v>
+        <v>990</v>
       </c>
       <c r="C4" t="n">
-        <v>63529</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2019</v>
+        <v>1963</v>
       </c>
       <c r="B5" t="n">
-        <v>33674</v>
+        <v>1126</v>
       </c>
       <c r="C5" t="n">
-        <v>65120</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2018</v>
+        <v>1964</v>
       </c>
       <c r="B6" t="n">
-        <v>34622</v>
+        <v>1223</v>
       </c>
       <c r="C6" t="n">
-        <v>62823</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2017</v>
+        <v>1965</v>
       </c>
       <c r="B7" t="n">
-        <v>32407</v>
+        <v>1304</v>
       </c>
       <c r="C7" t="n">
-        <v>59908</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2016</v>
+        <v>1966</v>
       </c>
       <c r="B8" t="n">
-        <v>30961</v>
+        <v>1402</v>
       </c>
       <c r="C8" t="n">
-        <v>57867</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2015</v>
+        <v>1967</v>
       </c>
       <c r="B9" t="n">
-        <v>30242</v>
+        <v>1534</v>
       </c>
       <c r="C9" t="n">
-        <v>56763</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2014</v>
+        <v>1968</v>
       </c>
       <c r="B10" t="n">
-        <v>35566</v>
+        <v>1652</v>
       </c>
       <c r="C10" t="n">
-        <v>55124</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2013</v>
+        <v>1969</v>
       </c>
       <c r="B11" t="n">
-        <v>35560</v>
+        <v>1813</v>
       </c>
       <c r="C11" t="n">
-        <v>53291</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2012</v>
+        <v>1970</v>
       </c>
       <c r="B12" t="n">
-        <v>35052</v>
+        <v>2107</v>
       </c>
       <c r="C12" t="n">
-        <v>51784</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2011</v>
+        <v>1971</v>
       </c>
       <c r="B13" t="n">
-        <v>38650</v>
+        <v>2306</v>
       </c>
       <c r="C13" t="n">
-        <v>50066</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2010</v>
+        <v>1972</v>
       </c>
       <c r="B14" t="n">
-        <v>36036</v>
+        <v>2671</v>
       </c>
       <c r="C14" t="n">
-        <v>48651</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2009</v>
+        <v>1973</v>
       </c>
       <c r="B15" t="n">
-        <v>37227</v>
+        <v>3205</v>
       </c>
       <c r="C15" t="n">
-        <v>47195</v>
+        <v>6726</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2008</v>
+        <v>1974</v>
       </c>
       <c r="B16" t="n">
-        <v>40945</v>
+        <v>3621</v>
       </c>
       <c r="C16" t="n">
-        <v>48570</v>
+        <v>7226</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2007</v>
+        <v>1975</v>
       </c>
       <c r="B17" t="n">
-        <v>37871</v>
+        <v>4107</v>
       </c>
       <c r="C17" t="n">
-        <v>48050</v>
+        <v>7801</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>2006</v>
+        <v>1976</v>
       </c>
       <c r="B18" t="n">
-        <v>33530</v>
+        <v>4033</v>
       </c>
       <c r="C18" t="n">
-        <v>46302</v>
+        <v>8592</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2005</v>
+        <v>1977</v>
       </c>
       <c r="B19" t="n">
-        <v>32055</v>
+        <v>4604</v>
       </c>
       <c r="C19" t="n">
-        <v>44123</v>
+        <v>9453</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>2004</v>
+        <v>1978</v>
       </c>
       <c r="B20" t="n">
-        <v>31317</v>
+        <v>5610</v>
       </c>
       <c r="C20" t="n">
-        <v>41725</v>
+        <v>10565</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>2003</v>
+        <v>1979</v>
       </c>
       <c r="B21" t="n">
-        <v>27526</v>
+        <v>6990</v>
       </c>
       <c r="C21" t="n">
-        <v>39490</v>
+        <v>11674</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>2002</v>
+        <v>1980</v>
       </c>
       <c r="B22" t="n">
-        <v>22376</v>
+        <v>8457</v>
       </c>
       <c r="C22" t="n">
-        <v>37998</v>
+        <v>12575</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>2001</v>
+        <v>1981</v>
       </c>
       <c r="B23" t="n">
-        <v>20501</v>
+        <v>7623</v>
       </c>
       <c r="C23" t="n">
-        <v>37134</v>
+        <v>13976</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>2000</v>
+        <v>1982</v>
       </c>
       <c r="B24" t="n">
-        <v>20138</v>
+        <v>7557</v>
       </c>
       <c r="C24" t="n">
-        <v>36330</v>
+        <v>14434</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>1999</v>
+        <v>1983</v>
       </c>
       <c r="B25" t="n">
-        <v>22005</v>
+        <v>7833</v>
       </c>
       <c r="C25" t="n">
-        <v>34515</v>
+        <v>15544</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>1998</v>
+        <v>1984</v>
       </c>
       <c r="B26" t="n">
-        <v>22318</v>
+        <v>7740</v>
       </c>
       <c r="C26" t="n">
-        <v>32854</v>
+        <v>17121</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>1997</v>
+        <v>1985</v>
       </c>
       <c r="B27" t="n">
-        <v>21829</v>
+        <v>7991</v>
       </c>
       <c r="C27" t="n">
-        <v>31459</v>
+        <v>18237</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="B28" t="n">
-        <v>23082</v>
+        <v>11315</v>
       </c>
       <c r="C28" t="n">
-        <v>29968</v>
+        <v>19071</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>1995</v>
+        <v>1987</v>
       </c>
       <c r="B29" t="n">
-        <v>20665</v>
+        <v>14235</v>
       </c>
       <c r="C29" t="n">
-        <v>28691</v>
+        <v>20039</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="B30" t="n">
-        <v>19338</v>
+        <v>15745</v>
       </c>
       <c r="C30" t="n">
-        <v>27695</v>
+        <v>21417</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="B31" t="n">
-        <v>18739</v>
+        <v>16387</v>
       </c>
       <c r="C31" t="n">
-        <v>26387</v>
+        <v>22857</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B32" t="n">
-        <v>23243</v>
+        <v>20826</v>
       </c>
       <c r="C32" t="n">
-        <v>25419</v>
+        <v>23889</v>
       </c>
     </row>
     <row r="33">
@@ -804,343 +804,343 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="B34" t="n">
-        <v>20826</v>
+        <v>23243</v>
       </c>
       <c r="C34" t="n">
-        <v>23889</v>
+        <v>25419</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="B35" t="n">
-        <v>16387</v>
+        <v>18739</v>
       </c>
       <c r="C35" t="n">
-        <v>22857</v>
+        <v>26387</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>1988</v>
+        <v>1994</v>
       </c>
       <c r="B36" t="n">
-        <v>15745</v>
+        <v>19338</v>
       </c>
       <c r="C36" t="n">
-        <v>21417</v>
+        <v>27695</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>1987</v>
+        <v>1995</v>
       </c>
       <c r="B37" t="n">
-        <v>14235</v>
+        <v>20665</v>
       </c>
       <c r="C37" t="n">
-        <v>20039</v>
+        <v>28691</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>1986</v>
+        <v>1996</v>
       </c>
       <c r="B38" t="n">
-        <v>11315</v>
+        <v>23082</v>
       </c>
       <c r="C38" t="n">
-        <v>19071</v>
+        <v>29968</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>1985</v>
+        <v>1997</v>
       </c>
       <c r="B39" t="n">
-        <v>7991</v>
+        <v>21829</v>
       </c>
       <c r="C39" t="n">
-        <v>18237</v>
+        <v>31459</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>1984</v>
+        <v>1998</v>
       </c>
       <c r="B40" t="n">
-        <v>7740</v>
+        <v>22318</v>
       </c>
       <c r="C40" t="n">
-        <v>17121</v>
+        <v>32854</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>1983</v>
+        <v>1999</v>
       </c>
       <c r="B41" t="n">
-        <v>7833</v>
+        <v>22005</v>
       </c>
       <c r="C41" t="n">
-        <v>15544</v>
+        <v>34515</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>1982</v>
+        <v>2000</v>
       </c>
       <c r="B42" t="n">
-        <v>7557</v>
+        <v>20138</v>
       </c>
       <c r="C42" t="n">
-        <v>14434</v>
+        <v>36330</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>1981</v>
+        <v>2001</v>
       </c>
       <c r="B43" t="n">
-        <v>7623</v>
+        <v>20501</v>
       </c>
       <c r="C43" t="n">
-        <v>13976</v>
+        <v>37134</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>1980</v>
+        <v>2002</v>
       </c>
       <c r="B44" t="n">
-        <v>8457</v>
+        <v>22376</v>
       </c>
       <c r="C44" t="n">
-        <v>12575</v>
+        <v>37998</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>1979</v>
+        <v>2003</v>
       </c>
       <c r="B45" t="n">
-        <v>6990</v>
+        <v>27526</v>
       </c>
       <c r="C45" t="n">
-        <v>11674</v>
+        <v>39490</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>1978</v>
+        <v>2004</v>
       </c>
       <c r="B46" t="n">
-        <v>5610</v>
+        <v>31317</v>
       </c>
       <c r="C46" t="n">
-        <v>10565</v>
+        <v>41725</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>1977</v>
+        <v>2005</v>
       </c>
       <c r="B47" t="n">
-        <v>4604</v>
+        <v>32055</v>
       </c>
       <c r="C47" t="n">
-        <v>9453</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>1976</v>
+        <v>2006</v>
       </c>
       <c r="B48" t="n">
-        <v>4033</v>
+        <v>33530</v>
       </c>
       <c r="C48" t="n">
-        <v>8592</v>
+        <v>46302</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>1975</v>
+        <v>2007</v>
       </c>
       <c r="B49" t="n">
-        <v>4107</v>
+        <v>37871</v>
       </c>
       <c r="C49" t="n">
-        <v>7801</v>
+        <v>48050</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>1974</v>
+        <v>2008</v>
       </c>
       <c r="B50" t="n">
-        <v>3621</v>
+        <v>40945</v>
       </c>
       <c r="C50" t="n">
-        <v>7226</v>
+        <v>48570</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>1973</v>
+        <v>2009</v>
       </c>
       <c r="B51" t="n">
-        <v>3205</v>
+        <v>37227</v>
       </c>
       <c r="C51" t="n">
-        <v>6726</v>
+        <v>47195</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>1972</v>
+        <v>2010</v>
       </c>
       <c r="B52" t="n">
-        <v>2671</v>
+        <v>36036</v>
       </c>
       <c r="C52" t="n">
-        <v>6094</v>
+        <v>48651</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>1971</v>
+        <v>2011</v>
       </c>
       <c r="B53" t="n">
-        <v>2306</v>
+        <v>38650</v>
       </c>
       <c r="C53" t="n">
-        <v>5609</v>
+        <v>50066</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>1970</v>
+        <v>2012</v>
       </c>
       <c r="B54" t="n">
-        <v>2107</v>
+        <v>35052</v>
       </c>
       <c r="C54" t="n">
-        <v>5234</v>
+        <v>51784</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>1969</v>
+        <v>2013</v>
       </c>
       <c r="B55" t="n">
-        <v>1813</v>
+        <v>35560</v>
       </c>
       <c r="C55" t="n">
-        <v>5032</v>
+        <v>53291</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>1968</v>
+        <v>2014</v>
       </c>
       <c r="B56" t="n">
-        <v>1652</v>
+        <v>35566</v>
       </c>
       <c r="C56" t="n">
-        <v>4696</v>
+        <v>55124</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>1967</v>
+        <v>2015</v>
       </c>
       <c r="B57" t="n">
-        <v>1534</v>
+        <v>30242</v>
       </c>
       <c r="C57" t="n">
-        <v>4336</v>
+        <v>56763</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>1966</v>
+        <v>2016</v>
       </c>
       <c r="B58" t="n">
-        <v>1402</v>
+        <v>30961</v>
       </c>
       <c r="C58" t="n">
-        <v>4146</v>
+        <v>57867</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>1965</v>
+        <v>2017</v>
       </c>
       <c r="B59" t="n">
-        <v>1304</v>
+        <v>32407</v>
       </c>
       <c r="C59" t="n">
-        <v>3828</v>
+        <v>59908</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>1964</v>
+        <v>2018</v>
       </c>
       <c r="B60" t="n">
-        <v>1223</v>
+        <v>34622</v>
       </c>
       <c r="C60" t="n">
-        <v>3574</v>
+        <v>62823</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>1963</v>
+        <v>2019</v>
       </c>
       <c r="B61" t="n">
-        <v>1126</v>
+        <v>33674</v>
       </c>
       <c r="C61" t="n">
-        <v>3375</v>
+        <v>65120</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>1962</v>
+        <v>2020</v>
       </c>
       <c r="B62" t="n">
-        <v>990</v>
+        <v>31919</v>
       </c>
       <c r="C62" t="n">
-        <v>3244</v>
+        <v>63529</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>1961</v>
+        <v>2021</v>
       </c>
       <c r="B63" t="n">
-        <v>887</v>
+        <v>35770</v>
       </c>
       <c r="C63" t="n">
-        <v>3067</v>
+        <v>70219</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>1960</v>
+        <v>2022</v>
       </c>
       <c r="B64" t="n">
-        <v>804</v>
+        <v>34158</v>
       </c>
       <c r="C64" t="n">
-        <v>3007</v>
+        <v>76399</v>
       </c>
     </row>
   </sheetData>
